--- a/SampleSeriesRules.xlsx
+++ b/SampleSeriesRules.xlsx
@@ -1,43 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banhashare.ztwo.app/remote.php/dav/files/72390065-2AA3-400A-BA79-648F8BE0ED4F/serise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdallah.hesham\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B05AED9-C86C-4506-B986-F01787CDA16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF3E8F1-D32C-4C43-B485-7B5E87C580B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9B7DDBE4-8DF4-42F0-A2FE-819A67837DE6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="11625" xr2:uid="{9B7DDBE4-8DF4-42F0-A2FE-819A67837DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$48</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="75">
   <si>
     <t>Category</t>
   </si>
@@ -222,6 +210,9 @@
     <t>Please review again - these should have a series</t>
   </si>
   <si>
+    <t>Please review again - this should have a Series</t>
+  </si>
+  <si>
     <t>Please review again - most TE heatshrink has a Series</t>
   </si>
   <si>
@@ -259,9 +250,6 @@
   </si>
   <si>
     <t>ManufacturerName</t>
-  </si>
-  <si>
-    <t>Please review. Most of the TE rectangular product has a series. | review TE website, product specs and/or application specs for series.</t>
   </si>
 </sst>
 </file>
@@ -667,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC08214C-1875-491A-ACB9-79926460FBD8}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -697,189 +685,189 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -899,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>60</v>
@@ -907,13 +895,13 @@
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>60</v>
@@ -927,7 +915,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>60</v>
@@ -941,7 +929,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>60</v>
@@ -949,13 +937,13 @@
     </row>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>60</v>
@@ -963,44 +951,44 @@
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1008,69 +996,69 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1078,69 +1066,69 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1148,13 +1136,13 @@
         <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1162,69 +1150,69 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1235,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>69</v>
@@ -1249,7 +1237,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>69</v>
@@ -1263,10 +1251,10 @@
         <v>20</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1277,10 +1265,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1291,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>70</v>
@@ -1305,7 +1293,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>70</v>
@@ -1313,48 +1301,229 @@
     </row>
     <row r="46" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>72</v>
+      <c r="D61" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D48" xr:uid="{BC08214C-1875-491A-ACB9-79926460FBD8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>